--- a/data/trans_bre/P16A15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Estudios-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.056070775194643</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8.419724130379119</v>
+        <v>8.419724130379116</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3629578474027939</v>
@@ -649,7 +649,7 @@
         <v>0.1964737202676609</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3802001688493465</v>
+        <v>0.3802001688493463</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.422269343401311</v>
+        <v>1.178325285585411</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5706303310414271</v>
+        <v>-0.08725300924273308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.4844420889911271</v>
+        <v>0.1048720290005823</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.274695862191163</v>
+        <v>4.296492146370199</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1069457470423035</v>
+        <v>0.09687231997366354</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.02265752991159474</v>
+        <v>-0.006431380911891974</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.01804065761308338</v>
+        <v>0.003481055930651304</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1717167637425701</v>
+        <v>0.179160324315998</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.958256361686749</v>
+        <v>6.778839097898606</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.29924991025411</v>
+        <v>6.855820408428554</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.789424004913827</v>
+        <v>8.079220201127148</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.98740211267783</v>
+        <v>12.72887571890422</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6851788152781449</v>
+        <v>0.6929125836119453</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3941963006169388</v>
+        <v>0.3571850713882154</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4213814624805223</v>
+        <v>0.4281401574209188</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6020390810324974</v>
+        <v>0.6687650654706152</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.044732676201586</v>
+        <v>-1.118322672500042</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.178679878001665</v>
+        <v>-2.182767083605483</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.62654701711134</v>
+        <v>-1.660581925997782</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.829636131163619</v>
+        <v>-2.764365512616452</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2843081443089545</v>
+        <v>-0.2909640241932958</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3355262304811255</v>
+        <v>-0.3281445633269258</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2308483724851845</v>
+        <v>-0.2281713576375083</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2484205751494799</v>
+        <v>-0.2419300157999114</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.388471785303433</v>
+        <v>1.402473737278845</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.102350815382293</v>
+        <v>1.115529809977725</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.547499042131146</v>
+        <v>1.559662669891196</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3130217585956724</v>
+        <v>0.4072723763471175</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5424861956963393</v>
+        <v>0.5375625508104883</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2111527325718647</v>
+        <v>0.2183641553966017</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2621644828844376</v>
+        <v>0.2717884560215468</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.03257525653478834</v>
+        <v>0.04276090432538696</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.868169833113069</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2098413174479161</v>
+        <v>0.2098413174479175</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.341989975488554</v>
@@ -849,7 +849,7 @@
         <v>-0.3834996762199602</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.0232729535889861</v>
+        <v>0.02327295358898625</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.494904397285906</v>
+        <v>-3.288731184736993</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.477327734420257</v>
+        <v>-6.483217661430177</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.677934000058646</v>
+        <v>-4.432047136768156</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.427208217057042</v>
+        <v>-2.182489334246803</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7152443052934407</v>
+        <v>-0.7003520856670521</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7393352831786464</v>
+        <v>-0.7266937413948781</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7201126622241046</v>
+        <v>-0.7087655030630192</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2315921875741407</v>
+        <v>-0.2139048846485113</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7300749410224505</v>
+        <v>0.8599185147378616</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.238122791067159</v>
+        <v>0.09640993847203407</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5815818932759281</v>
+        <v>0.4563336968411051</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.752420102056775</v>
+        <v>2.9276649109463</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.339399935343187</v>
+        <v>0.4293502728874488</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09700117745169717</v>
+        <v>0.09144405801466655</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2158624157015308</v>
+        <v>0.1658393878696701</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3585644666868798</v>
+        <v>0.3900083760860103</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9320747776324295</v>
+        <v>0.8554060347013224</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4640477133736153</v>
+        <v>0.4085839840129192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1144647450430158</v>
+        <v>0.1065245338543906</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3431124608642939</v>
+        <v>0.5781933677456459</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1399649498305195</v>
+        <v>0.1329902910180228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04368185003644476</v>
+        <v>0.03390233042593107</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0113708574252426</v>
+        <v>0.01258890376672046</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0266136006495249</v>
+        <v>0.04548980049694493</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.320612207200425</v>
+        <v>3.405562215966117</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.691511759537311</v>
+        <v>3.595042528973468</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.101490768624954</v>
+        <v>3.097838294373191</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.119341729016496</v>
+        <v>3.100573041725171</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.64178733338521</v>
+        <v>0.6418022395701427</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4057867980652989</v>
+        <v>0.3734338490275376</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3508287496921173</v>
+        <v>0.3576610478240721</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2799928120579079</v>
+        <v>0.2777705413382985</v>
       </c>
     </row>
     <row r="16">
